--- a/data/trans_camb/P16B07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -616,17 +616,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-32,1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,81</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,89; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,81%</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,89; 0,0</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,63</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 45,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 50,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,64</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,26%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 83,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 105,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 35,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 30,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 34,48</t>
         </is>
       </c>
     </row>
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 16,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,34; 12,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 10,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,73; 10,3</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,27%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,22; 19,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,37; 14,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 11,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,74; 11,15</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,39</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,36</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 34,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,64</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 52,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 64,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,98</t>
         </is>
       </c>
     </row>
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 11,02</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 7,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,69</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 12,39</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,2</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 8,31</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,73</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 5,1</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 5,19</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 4,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 5,0</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,5</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,98</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 5,42</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 5,53</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 4,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 5,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 11,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 7,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,69</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 12,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 8,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,73</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>6,0</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,1</t>
+          <t>-3,51; 22,99</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,19</t>
+          <t>0,0; 26,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,54</t>
+          <t>-2,55; 16,34</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,0</t>
+          <t>0,0; 18,61</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 29,88</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 36,38</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 20,03</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 22,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,31</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,89</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 5,1</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 5,19</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 4,54</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 5,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>0,0; 11,5</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>0,0; 10,98</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-0,12; 5,42</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-0,27; 5,53</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>0,28; 4,79</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>0,41; 5,31</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B07-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-78,89; 0,0</t>
+          <t>-79,39; 0,0</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,89; 0,0</t>
+          <t>-79,39; 0,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,57</t>
+          <t>0,0; 56,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,81</t>
+          <t>0,0; 45,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,0</t>
+          <t>0,0; 24,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,01</t>
+          <t>0,0; 30,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,21</t>
+          <t>0,0; 23,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,64</t>
+          <t>0,0; 23,36</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,71</t>
+          <t>0,0; 129,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 105,5</t>
+          <t>0,0; 83,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,16</t>
+          <t>0,0; 32,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,33</t>
+          <t>0,0; 43,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,21</t>
+          <t>0,0; 30,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,48</t>
+          <t>0,0; 30,49</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 16,69</t>
+          <t>-4,24; 15,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 12,81</t>
+          <t>-7,19; 13,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 10,58</t>
+          <t>-2,93; 11,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 10,3</t>
+          <t>-4,87; 8,05</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 19,84</t>
+          <t>-4,25; 17,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 14,83</t>
+          <t>-7,26; 15,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 11,83</t>
+          <t>-2,94; 12,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 11,15</t>
+          <t>-4,9; 8,74</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,74</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,21</t>
+          <t>0,0; 12,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,33</t>
+          <t>0,0; 9,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,39</t>
+          <t>0,0; 7,95</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,3</t>
+          <t>0,0; 11,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,64</t>
+          <t>0,0; 14,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,09</t>
+          <t>0,0; 10,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,36</t>
+          <t>0,0; 8,64</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,64</t>
+          <t>0,0; 34,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,89</t>
+          <t>0,0; 30,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,97</t>
+          <t>0,0; 6,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,64</t>
+          <t>0,0; 6,81</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,99</t>
+          <t>0,0; 52,29</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,25</t>
+          <t>0,0; 44,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,49</t>
+          <t>0,0; 7,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,98</t>
+          <t>0,0; 7,31</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 22,99</t>
+          <t>-3,36; 20,54</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,68</t>
+          <t>0,0; 23,14</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 16,34</t>
+          <t>-2,61; 16,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,61</t>
+          <t>0,0; 18,13</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 29,88</t>
+          <t>-3,5; 26,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,38</t>
+          <t>0,0; 30,1</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 20,03</t>
+          <t>-2,69; 20,08</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,86</t>
+          <t>0,0; 22,15</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,31</t>
+          <t>0,0; 9,47</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,89</t>
+          <t>0,0; 8,59</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,1</t>
+          <t>-0,3; 4,74</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,19</t>
+          <t>-0,14; 4,77</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,54</t>
+          <t>0,19; 4,55</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,0</t>
+          <t>0,42; 4,65</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,5</t>
+          <t>0,0; 10,46</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,98</t>
+          <t>0,0; 9,39</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,42</t>
+          <t>-0,3; 5,02</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,53</t>
+          <t>-0,14; 5,01</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,79</t>
+          <t>0,21; 4,8</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,31</t>
+          <t>0,44; 4,92</t>
         </is>
       </c>
     </row>
